--- a/details/svtapi.xlsx
+++ b/details/svtapi.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5172" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5172" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="All sales screen" sheetId="2" r:id="rId2"/>
     <sheet name="My assignment - cw" sheetId="3" r:id="rId3"/>
     <sheet name="total endpoints" sheetId="7" r:id="rId4"/>
-    <sheet name="Manager dashboard" sheetId="5" r:id="rId5"/>
-    <sheet name="QC dashboard" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="Manager dashboard" sheetId="5" r:id="rId6"/>
+    <sheet name="QC dashboard" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="385">
   <si>
     <t>Persona</t>
   </si>
@@ -2307,6 +2308,527 @@
   </si>
   <si>
     <t>new_svtSubmitSaleRecord</t>
+  </si>
+  <si>
+    <t>Group / Section</t>
+  </si>
+  <si>
+    <t>Field / Label</t>
+  </si>
+  <si>
+    <t>Datatype / Format</t>
+  </si>
+  <si>
+    <t>Editable (Y/N)</t>
+  </si>
+  <si>
+    <t>Action / Button</t>
+  </si>
+  <si>
+    <t>Logic / Behaviour</t>
+  </si>
+  <si>
+    <t>Notes / Comments</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Displays assigned user from Task metadata</t>
+  </si>
+  <si>
+    <t>Read-only field</t>
+  </si>
+  <si>
+    <t>Task Status</t>
+  </si>
+  <si>
+    <t>Enum (New / Assigned / QA Assigned / Completed)</t>
+  </si>
+  <si>
+    <t>Derived from Task record</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Text (UUID)</t>
+  </si>
+  <si>
+    <t>Retrieved from task entity</t>
+  </si>
+  <si>
+    <t>Create Task</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <r>
+      <t>Create Task API call (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>new_svtCreateTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>If Task ID not present → creates task in DAP2 &amp; updates TaskStatus=New</t>
+  </si>
+  <si>
+    <t>Visible if no task exists</t>
+  </si>
+  <si>
+    <t>VMS / Audit History</t>
+  </si>
+  <si>
+    <t>new_svtGetAuditLogs</t>
+  </si>
+  <si>
+    <t>Opens modal with record-level audit history</t>
+  </si>
+  <si>
+    <t>Common for all personas</t>
+  </si>
+  <si>
+    <t>Hereditament &amp; Banding Info</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Fetched from DAP2 / PAD</t>
+  </si>
+  <si>
+    <t>Billing Authority</t>
+  </si>
+  <si>
+    <t>Coordinate Status</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>True/False flag from PAD</t>
+  </si>
+  <si>
+    <t>Banding Reference Date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Always 1 April 2025</t>
+  </si>
+  <si>
+    <t>Static value for 2028 Reval</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Proposed Band (from AVM or Manual Update)</t>
+  </si>
+  <si>
+    <t>Property Attributes (PAD)</t>
+  </si>
+  <si>
+    <t>PAD Status</t>
+  </si>
+  <si>
+    <t>Enum (Synced / Pending / Missing)</t>
+  </si>
+  <si>
+    <t>Reflects current PAD sync status</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Effective To</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Enum (Committed / Draft)</t>
+  </si>
+  <si>
+    <t>Attributes (icons list)</t>
+  </si>
+  <si>
+    <t>Icon Set / String</t>
+  </si>
+  <si>
+    <t>Display PAD attribute codes (read-only visual)</t>
+  </si>
+  <si>
+    <t>Create D365 Record</t>
+  </si>
+  <si>
+    <r>
+      <t>Launch PAD PCF (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>new_svtPADRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Creates PAD entry &amp; updates PADRequestId</t>
+  </si>
+  <si>
+    <t>Available if PAD not synced</t>
+  </si>
+  <si>
+    <t>View D365 Record</t>
+  </si>
+  <si>
+    <t>Opens linked D365 PAD record</t>
+  </si>
+  <si>
+    <t>Opens in new tab</t>
+  </si>
+  <si>
+    <t>Sale Summary &amp; Calculations</t>
+  </si>
+  <si>
+    <t>Sale Price</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Auto-populated / updated when “Promote to Master” clicked in WLTT/LR section</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>Latest Model Price</t>
+  </si>
+  <si>
+    <t>Sale Source</t>
+  </si>
+  <si>
+    <t>Enum (WLTT / LRPPD)</t>
+  </si>
+  <si>
+    <t>Indicates which dataset the master record originated from</t>
+  </si>
+  <si>
+    <t>Latest Adjusted Price</t>
+  </si>
+  <si>
+    <t>Auto-calculated</t>
+  </si>
+  <si>
+    <t>WLTT Section</t>
+  </si>
+  <si>
+    <t>WLTT ID</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Data from WLTT dataset</t>
+  </si>
+  <si>
+    <t>Transaction Price</t>
+  </si>
+  <si>
+    <t>Vendor(s) / Vendee(s)</t>
+  </si>
+  <si>
+    <t>Multi-value text</t>
+  </si>
+  <si>
+    <t>Ground Rent</t>
+  </si>
+  <si>
+    <t>Promote to Master</t>
+  </si>
+  <si>
+    <t>Sets selected WLTT record as master</t>
+  </si>
+  <si>
+    <t>Only one record can be master at a time</t>
+  </si>
+  <si>
+    <t>No API call until final submit</t>
+  </si>
+  <si>
+    <t>LR PPD Section</t>
+  </si>
+  <si>
+    <t>LR ID</t>
+  </si>
+  <si>
+    <t>Same as WLTT section</t>
+  </si>
+  <si>
+    <t>Address / Price / Tenure</t>
+  </si>
+  <si>
+    <t>Text / Currency</t>
+  </si>
+  <si>
+    <t>Sets selected LR record as master</t>
+  </si>
+  <si>
+    <t>Disables WLTT master if selected</t>
+  </si>
+  <si>
+    <t>Condition Score Section</t>
+  </si>
+  <si>
+    <t>Is Condition Score Mandatory</t>
+  </si>
+  <si>
+    <t>Derived from sale rules</t>
+  </si>
+  <si>
+    <t>Kitchen Age / Spec</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Yes (Caseworker)</t>
+  </si>
+  <si>
+    <t>Editable for assigned users</t>
+  </si>
+  <si>
+    <t>Used for Condition Score Calculation</t>
+  </si>
+  <si>
+    <t>Bathroom Age / Spec</t>
+  </si>
+  <si>
+    <t>Decorative Finishes / Heating / Glazing</t>
+  </si>
+  <si>
+    <t>Condition Score</t>
+  </si>
+  <si>
+    <t>Decimal (0–1)</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <r>
+      <t>Calculate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculates score client-side (Fx formula)</t>
+  </si>
+  <si>
+    <t>Condition Category</t>
+  </si>
+  <si>
+    <t>Derived from score band (e.g., 0.7–1.0 = Above Avg)</t>
+  </si>
+  <si>
+    <t>Condition Notes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Optional comments</t>
+  </si>
+  <si>
+    <t>Sales Verification Section</t>
+  </si>
+  <si>
+    <t>Useful Sale</t>
+  </si>
+  <si>
+    <t>Boolean / Enum (Yes/No)</t>
+  </si>
+  <si>
+    <t>Mandatory for Caseworker before submit</t>
+  </si>
+  <si>
+    <t>Why Not Useful</t>
+  </si>
+  <si>
+    <t>Dropdown (Multi)</t>
+  </si>
+  <si>
+    <t>Shown if UsefulSale = No</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>Text (Multiline)</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Hyperlinks Section</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>Opens EPC website with UARN context</t>
+  </si>
+  <si>
+    <t>External link</t>
+  </si>
+  <si>
+    <t>Zoopla</t>
+  </si>
+  <si>
+    <t>Opens Zoopla page for property</t>
+  </si>
+  <si>
+    <t>Right Move</t>
+  </si>
+  <si>
+    <t>Opens RightMove page</t>
+  </si>
+  <si>
+    <t>QA Section (Visible only to QC/QA personas)</t>
+  </si>
+  <si>
+    <t>QA Done By</t>
+  </si>
+  <si>
+    <t>Auto (User)</t>
+  </si>
+  <si>
+    <t>Auto-populated by system user context</t>
+  </si>
+  <si>
+    <t>QA Outcome</t>
+  </si>
+  <si>
+    <t>Dropdown (Pass / Fail / Returned)</t>
+  </si>
+  <si>
+    <t>Yes (QA only)</t>
+  </si>
+  <si>
+    <t>Required for submission</t>
+  </si>
+  <si>
+    <t>QA Notes</t>
+  </si>
+  <si>
+    <t>Required if Fail</t>
+  </si>
+  <si>
+    <t>QA Latest Comments</t>
+  </si>
+  <si>
+    <t>Text / Log</t>
+  </si>
+  <si>
+    <t>Read-only from audit table</t>
+  </si>
+  <si>
+    <t>Displays recent QA remarks</t>
+  </si>
+  <si>
+    <t>Footer Actions</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Allows change to Completed / QC Assigned</t>
+  </si>
+  <si>
+    <t>Persona-based visibility</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calls </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>new_svtSubmitSaleRecord</t>
+    </r>
+  </si>
+  <si>
+    <t>Aggregates form data + master record + task status</t>
+  </si>
+  <si>
+    <t>Final API call to APIM</t>
+  </si>
+  <si>
+    <t>Back / Cancel</t>
+  </si>
+  <si>
+    <t>Navigate to previous page</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2489,12 +3011,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2507,15 +3023,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2541,21 +3048,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2571,18 +3063,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3073,12 +3607,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="60.21875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="60.21875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3091,318 +3625,318 @@
       <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81.599999999999994">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="24" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.6">
-      <c r="A5" s="29"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="24" t="s">
+    <row r="5" spans="1:6" ht="20.399999999999999">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.799999999999997">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:6" ht="30.6">
+      <c r="A6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="40.799999999999997">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:6" ht="30.6">
+      <c r="A7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="71.400000000000006">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="40.799999999999997">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.799999999999997">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.6">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="40.799999999999997">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:6" ht="30.6">
+      <c r="A16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.6">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3416,99 +3950,99 @@
       <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.399999999999999">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.399999999999999">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="19" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3533,14 +4067,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
@@ -3577,7 +4111,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3594,112 +4128,112 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" ht="40.799999999999997">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="122.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30.6">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="24" t="s">
+    <row r="11" spans="1:6" ht="20.399999999999999">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="19" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.399999999999999">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.399999999999999">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.6">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3721,291 +4255,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="52" style="22" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="52" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="20.399999999999999">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" ht="20.399999999999999">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.399999999999999">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4021,185 +4555,185 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30.6">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.399999999999999">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.399999999999999">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="12" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.399999999999999">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="11" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.399999999999999">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="12" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="11" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30.6">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20.399999999999999">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.399999999999999">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4215,6 +4749,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
@@ -4225,24 +4771,1144 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72">
+      <c r="A2" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="115.2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="144">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100.8">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.6">
+      <c r="A7" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.6">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="86.4">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57.6">
+      <c r="A13" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100.8">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="86.4">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="72">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="158.4">
+      <c r="A20" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="115.2">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57.6">
+      <c r="A25" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.6">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="72">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2">
+      <c r="A30" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.2">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="57.6">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="72">
+      <c r="A33" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="72">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="43.2">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="57.6">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="72">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="115.2">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="86.4">
+      <c r="A40" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="43.2">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="43.2">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="86.4">
+      <c r="A43" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="57.6">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="43.2">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="100.8">
+      <c r="A46" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="72">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.8">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="57.6">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="86.4">
+      <c r="A50" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="100.8">
+      <c r="A51" s="44"/>
+      <c r="B51" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="57.6">
+      <c r="A52" s="44"/>
+      <c r="B52" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4261,286 +5927,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.399999999999999">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.399999999999999">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="40.799999999999997">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.6">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="24" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="19" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="61.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="24" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="112.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.399999999999999">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.399999999999999">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.6">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.6">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="20" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:A12"/>
@@ -4548,12 +6209,17 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4572,286 +6238,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.399999999999999">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.399999999999999">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="40.799999999999997">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.6">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="24" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="19" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="61.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="24" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="112.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.399999999999999">
-      <c r="A15" s="38"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.399999999999999">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.6">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.6">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="20" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:A12"/>
@@ -4859,6 +6520,11 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
